--- a/analysis/pre_gemini_data/particiapnt230/task_med.xlsx
+++ b/analysis/pre_gemini_data/particiapnt230/task_med.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,127 +422,123 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arrg1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>conbody</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>condstate2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>except</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>exteran;3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>externa;</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>external2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>external4</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>external5</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>methdocall</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>methdocall2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>return2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>var1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
@@ -598,27 +582,25 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>36</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>50</v>
-      </c>
-      <c r="E3" t="n">
-        <v>32</v>
-      </c>
-      <c r="F3" t="n">
-        <v>14</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -631,19 +613,17 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -663,27 +643,25 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>83</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18</v>
+      </c>
+      <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
-        <v>115</v>
-      </c>
-      <c r="E4" t="n">
-        <v>46</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7</v>
-      </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -696,19 +674,17 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R4" t="n">
         <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="V4" t="n">
         <v>2</v>
@@ -728,27 +704,25 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>433.75</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>29319.27</v>
+        <v>20101.44</v>
       </c>
       <c r="E5" t="n">
-        <v>9167.389999999999</v>
+        <v>5905.6</v>
       </c>
       <c r="F5" t="n">
-        <v>7123.21</v>
+        <v>5871.9</v>
       </c>
       <c r="G5" t="n">
-        <v>1435.02</v>
+        <v>434.38</v>
       </c>
       <c r="H5" t="n">
-        <v>3711.33</v>
+        <v>2084.62</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>2136.18</v>
+        <v>1635.72</v>
       </c>
       <c r="K5" t="n">
         <v>183.5</v>
@@ -761,19 +735,17 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>5872.88</v>
+        <v>4805.1</v>
       </c>
       <c r="R5" t="n">
         <v>1068</v>
       </c>
       <c r="S5" t="n">
-        <v>717.4400000000001</v>
-      </c>
-      <c r="T5" t="n">
-        <v>583.92</v>
-      </c>
+        <v>383.74</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>77520.37</v>
+        <v>27774.08</v>
       </c>
       <c r="V5" t="n">
         <v>333.64</v>
@@ -793,30 +765,28 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>0.13</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>8.470000000000001</v>
+        <v>13.43</v>
       </c>
       <c r="E6" t="n">
-        <v>2.65</v>
+        <v>3.95</v>
       </c>
       <c r="F6" t="n">
-        <v>2.06</v>
+        <v>3.92</v>
       </c>
       <c r="G6" t="n">
-        <v>0.41</v>
+        <v>0.29</v>
       </c>
       <c r="H6" t="n">
-        <v>1.07</v>
+        <v>1.39</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>0.62</v>
+        <v>1.09</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -826,29 +796,27 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>3.21</v>
       </c>
       <c r="R6" t="n">
-        <v>0.31</v>
+        <v>0.71</v>
       </c>
       <c r="S6" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.17</v>
-      </c>
+        <v>0.26</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>22.41</v>
+        <v>18.56</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="W6" t="n">
-        <v>0.23</v>
+        <v>0.52</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -858,27 +826,25 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
-        <v>216.88</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>254.95</v>
+        <v>242.19</v>
       </c>
       <c r="E7" t="n">
-        <v>199.29</v>
+        <v>196.85</v>
       </c>
       <c r="F7" t="n">
-        <v>339.2</v>
+        <v>326.22</v>
       </c>
       <c r="G7" t="n">
-        <v>205</v>
+        <v>217.19</v>
       </c>
       <c r="H7" t="n">
-        <v>176.73</v>
+        <v>138.97</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>213.62</v>
+        <v>233.67</v>
       </c>
       <c r="K7" t="n">
         <v>183.5</v>
@@ -891,19 +857,17 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>451.76</v>
+        <v>436.83</v>
       </c>
       <c r="R7" t="n">
         <v>534</v>
       </c>
       <c r="S7" t="n">
-        <v>239.15</v>
-      </c>
-      <c r="T7" t="n">
-        <v>583.92</v>
-      </c>
+        <v>191.87</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>251.69</v>
+        <v>218.69</v>
       </c>
       <c r="V7" t="n">
         <v>166.82</v>
@@ -923,9 +887,7 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>133.43</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
         <v>525.64</v>
       </c>
@@ -964,9 +926,7 @@
       <c r="S8" t="n">
         <v>200.24</v>
       </c>
-      <c r="T8" t="n">
-        <v>583.92</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
         <v>166.87</v>
       </c>
@@ -1008,33 +968,6 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
